--- a/1_excel_Source/Appointment.xlsx
+++ b/1_excel_Source/Appointment.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faisa\OneDrive\Documents\Hospital_CAI\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B17742-BEF1-421E-A87F-BCAFFF40A88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{90F7F0BD-DE89-4433-B1CF-7611AB4BAB1F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,8 +13,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -875,8 +869,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -967,7 +961,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1019,7 +1013,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1233,36 +1227,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0634226B-9DC8-458C-AF1B-610DAAC1D7F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.453125" customWidth="1"/>
-    <col min="12" max="12" width="14.7265625" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.09765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5" customWidth="1"/>
+    <col min="12" max="12" width="14.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -1303,7 +1297,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -1344,7 +1338,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -1385,7 +1379,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>74</v>
       </c>
@@ -1426,7 +1420,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -1467,7 +1461,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>85</v>
       </c>
@@ -1508,7 +1502,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>89</v>
       </c>
@@ -1549,7 +1543,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>93</v>
       </c>
@@ -1590,7 +1584,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>95</v>
       </c>
@@ -1631,7 +1625,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>100</v>
       </c>
@@ -1672,7 +1666,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -1713,7 +1707,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>107</v>
       </c>
@@ -1754,7 +1748,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>110</v>
       </c>
@@ -1795,7 +1789,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>113</v>
       </c>
@@ -1836,7 +1830,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -1877,7 +1871,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>121</v>
       </c>
@@ -1918,7 +1912,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>124</v>
       </c>
@@ -1959,7 +1953,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>127</v>
       </c>
@@ -2000,7 +1994,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>130</v>
       </c>
@@ -2041,7 +2035,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>133</v>
       </c>
@@ -2082,7 +2076,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>136</v>
       </c>
@@ -2123,7 +2117,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
         <v>139</v>
       </c>
@@ -2164,7 +2158,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
         <v>143</v>
       </c>
@@ -2205,7 +2199,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
         <v>147</v>
       </c>
@@ -2246,7 +2240,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
         <v>150</v>
       </c>
@@ -2287,7 +2281,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>153</v>
       </c>
@@ -2328,7 +2322,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
         <v>156</v>
       </c>
@@ -2369,7 +2363,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
         <v>158</v>
       </c>
@@ -2410,7 +2404,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
         <v>161</v>
       </c>
@@ -2451,7 +2445,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
         <v>164</v>
       </c>
@@ -2492,7 +2486,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
         <v>167</v>
       </c>
@@ -2533,7 +2527,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
         <v>170</v>
       </c>
@@ -2558,20 +2552,20 @@
       <c r="H32" t="s">
         <v>240</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>65</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>174</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>67</v>
       </c>
       <c r="M32" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
         <v>175</v>
       </c>
@@ -2596,20 +2590,20 @@
       <c r="H33" t="s">
         <v>241</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>65</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>174</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>67</v>
       </c>
       <c r="M33" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
         <v>178</v>
       </c>
@@ -2634,20 +2628,20 @@
       <c r="H34" t="s">
         <v>242</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>106</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>174</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>67</v>
       </c>
       <c r="M34" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
         <v>180</v>
       </c>
@@ -2672,20 +2666,20 @@
       <c r="H35" t="s">
         <v>243</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>78</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>174</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>67</v>
       </c>
       <c r="M35" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
         <v>183</v>
       </c>
@@ -2710,13 +2704,13 @@
       <c r="H36" t="s">
         <v>244</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>65</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>174</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>67</v>
       </c>
       <c r="M36" t="s">
